--- a/tools/language_tool/language.xlsx
+++ b/tools/language_tool/language.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tools\language_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\test\cocos-framework\tools\language_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83E3191-CE5D-4AB8-9DBD-5400114FF95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="language" sheetId="1" r:id="rId1"/>
@@ -19,37 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+  <si>
+    <t>zh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cht</t>
+  </si>
   <si>
     <t>en</t>
-  </si>
-  <si>
-    <t>es</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pt</t>
+    <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>big win</t>
-  </si>
-  <si>
-    <t>GRAN PREMIO</t>
-  </si>
-  <si>
-    <t>GRANDE GANHO</t>
-  </si>
-  <si>
-    <t>win</t>
+    <t>one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +59,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -85,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -388,44 +397,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" customWidth="1"/>
+    <col min="4" max="4" width="9.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
